--- a/Technology/Hardware/SolarEdge.xlsx
+++ b/Technology/Hardware/SolarEdge.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1223E6-1E68-3A48-AFDB-05FC31F67FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A92EE7-4E67-BB40-B656-F7BB47393FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="161">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -559,12 +559,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -896,7 +897,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -934,9 +935,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -949,12 +947,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1035,6 +1027,20 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2315,11 +2321,11 @@
     <v>Powered by Refinitiv</v>
     <v>375.9</v>
     <v>190.15</v>
-    <v>1.423</v>
-    <v>1</v>
-    <v>3.1430000000000004E-3</v>
-    <v>-0.19</v>
-    <v>-5.9520000000000005E-4</v>
+    <v>1.4195</v>
+    <v>8.76</v>
+    <v>3.0395999999999999E-2</v>
+    <v>-0.86</v>
+    <v>-2.8960000000000001E-3</v>
     <v>USD</v>
     <v>SolarEdge Technologies, Inc. offers an inverter solution for a solar photovoltaic (PV) system. The Company's products include SolarEdge Power Optimizer, SolarEdge Inverter, StorEdge Solutions and SolarEdge Monitoring Software. Its product roadmap consists of categories, including power optimizers, inverters, monitoring services, energy storage and smart energy management. The Company's power optimizers provide module-level maximum power point (MPP) tracking and real-time adjustments of current and voltage to the optimal working point of each individual PV module. The Company's solution consists of a direct current (DC) power optimizer, an inverter and a cloud-based monitoring platform that operates as a single integrated system.</v>
     <v>4926</v>
@@ -2327,25 +2333,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 HaMada St., POB 12001, HERZLIYA, 4672505 IL</v>
-    <v>321.61</v>
+    <v>297.57</v>
     <v>Renewable Energy</v>
     <v>Stock</v>
-    <v>45037.993601689064</v>
+    <v>45071.981041423438</v>
     <v>0</v>
-    <v>312.08999999999997</v>
-    <v>17922000000</v>
+    <v>287.11009999999999</v>
+    <v>16732131020</v>
     <v>SOLAREDGE TECHNOLOGIES, INC.</v>
     <v>SOLAREDGE TECHNOLOGIES, INC.</v>
-    <v>316.14999999999998</v>
-    <v>191.74680000000001</v>
-    <v>318.2</v>
-    <v>319.2</v>
-    <v>319.01</v>
-    <v>56146610</v>
+    <v>290</v>
+    <v>87.122600000000006</v>
+    <v>288.2</v>
+    <v>296.95999999999998</v>
+    <v>296.10000000000002</v>
+    <v>56344730</v>
     <v>SEDG</v>
     <v>SOLAREDGE TECHNOLOGIES, INC. (XNAS:SEDG)</v>
-    <v>994692</v>
-    <v>1043434</v>
+    <v>1049292</v>
+    <v>1183282</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2510,9 +2516,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2933,10 +2939,10 @@
   <dimension ref="A1:Y118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P101" sqref="P101"/>
+      <selection pane="bottomRight" activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2989,19 +2995,19 @@
       <c r="N1" s="8">
         <v>2022</v>
       </c>
-      <c r="O1" s="27">
+      <c r="O1" s="26">
         <v>2023</v>
       </c>
-      <c r="P1" s="27">
+      <c r="P1" s="26">
         <v>2024</v>
       </c>
-      <c r="Q1" s="27">
+      <c r="Q1" s="26">
         <v>2025</v>
       </c>
-      <c r="R1" s="27">
+      <c r="R1" s="26">
         <v>2026</v>
       </c>
-      <c r="S1" s="27">
+      <c r="S1" s="26">
         <v>2027</v>
       </c>
     </row>
@@ -3107,20 +3113,20 @@
       <c r="N3" s="1">
         <v>3110279000</v>
       </c>
-      <c r="O3" s="28">
-        <v>4086000000</v>
-      </c>
-      <c r="P3" s="28">
-        <v>4956000000</v>
-      </c>
-      <c r="Q3" s="28">
-        <v>5783000000</v>
-      </c>
-      <c r="R3" s="28">
-        <v>5780000000</v>
-      </c>
-      <c r="S3" s="28">
-        <v>6394000000</v>
+      <c r="O3" s="27">
+        <v>4117000000</v>
+      </c>
+      <c r="P3" s="27">
+        <v>5002000000</v>
+      </c>
+      <c r="Q3" s="27">
+        <v>5832000000</v>
+      </c>
+      <c r="R3" s="27">
+        <v>6592000000</v>
+      </c>
+      <c r="S3" s="27">
+        <v>7010000000</v>
       </c>
       <c r="T3" s="18" t="s">
         <v>109</v>
@@ -3190,23 +3196,23 @@
       </c>
       <c r="O4" s="16">
         <f t="shared" si="0"/>
-        <v>0.31370851296620006</v>
+        <v>0.32367546448405426</v>
       </c>
       <c r="P4" s="16">
         <f t="shared" si="0"/>
-        <v>0.21292217327459628</v>
+        <v>0.21496235122662122</v>
       </c>
       <c r="Q4" s="16">
         <f t="shared" si="0"/>
-        <v>0.16686844229217113</v>
+        <v>0.16593362654938026</v>
       </c>
       <c r="R4" s="16">
         <f t="shared" si="0"/>
-        <v>-5.1876188829325098E-4</v>
+        <v>0.13031550068587117</v>
       </c>
       <c r="S4" s="16">
         <f t="shared" si="0"/>
-        <v>0.10622837370242211</v>
+        <v>6.3410194174757351E-2</v>
       </c>
       <c r="T4" s="17">
         <f>(N4+M4+L4)/3</f>
@@ -3726,7 +3732,7 @@
         <f>N22/(N72+N56+N61)</f>
         <v>5.7432121745588011E-2</v>
       </c>
-      <c r="W13" s="21">
+      <c r="W13" s="68">
         <f>N67/N72</f>
         <v>0.96012481356536539</v>
       </c>
@@ -3874,24 +3880,24 @@
       <c r="N16" s="1">
         <v>2944159000</v>
       </c>
-      <c r="T16" s="29">
+      <c r="T16" s="28">
         <f>(N35+M35+L35+K35+J35)/5</f>
         <v>5.0939451955917724E-2</v>
       </c>
-      <c r="U16" s="30">
+      <c r="U16" s="66">
         <f>V101/N3</f>
-        <v>5.7621840355800877</v>
-      </c>
-      <c r="V16" s="30">
+        <v>5.3796238279588424</v>
+      </c>
+      <c r="V16" s="66">
         <f>V101/N28</f>
-        <v>191.10888365199031</v>
-      </c>
-      <c r="W16" s="31">
+        <v>178.42087269004787</v>
+      </c>
+      <c r="W16" s="67">
         <f>V101/N106</f>
-        <v>-129.81594558769203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+        <v>-121.19726649137675</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3935,7 +3941,7 @@
         <v>3316000</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3981,8 +3987,11 @@
       <c r="T18" s="18" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U18" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -4025,12 +4034,16 @@
       <c r="N19" s="10">
         <v>230147000</v>
       </c>
-      <c r="T19" s="32">
+      <c r="T19" s="29">
         <f>N40-N56-N61</f>
         <v>308137000</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U19" s="69">
+        <f>V101/O3</f>
+        <v>4.0641561865435998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>101</v>
       </c>
@@ -4084,7 +4097,7 @@
         <v>-2.4957845770596232E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4128,7 +4141,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -4172,7 +4185,7 @@
         <v>166120000</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -4216,7 +4229,7 @@
         <v>5.3400000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -4260,7 +4273,7 @@
         <v>11035000</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -4304,7 +4317,7 @@
         <v>177155000</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -4348,7 +4361,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -4392,7 +4405,7 @@
         <v>83376000</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -4436,7 +4449,7 @@
         <v>93779000</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>102</v>
       </c>
@@ -4490,7 +4503,7 @@
         <v>-0.44565230241768639</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -4534,7 +4547,7 @@
         <v>3.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -4578,7 +4591,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -4715,51 +4728,51 @@
         <v>103</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="22" t="e">
+      <c r="C35" s="21" t="e">
         <f>(C34-B34)/B34</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D35" s="22" t="e">
+      <c r="D35" s="21" t="e">
         <f t="shared" ref="D35:N35" si="5">(D34-C34)/C34</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="21">
         <f t="shared" si="5"/>
         <v>-0.19105946505183352</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="21">
         <f t="shared" si="5"/>
         <v>0.23618480815042331</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="21">
         <f t="shared" si="5"/>
         <v>-0.60962721195595293</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="21">
         <f t="shared" si="5"/>
         <v>1.906200342016293</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="21">
         <f t="shared" si="5"/>
         <v>2.3644092002278256E-2</v>
       </c>
-      <c r="J35" s="22">
+      <c r="J35" s="21">
         <f t="shared" si="5"/>
         <v>5.6239465811425339E-2</v>
       </c>
-      <c r="K35" s="22">
+      <c r="K35" s="21">
         <f t="shared" si="5"/>
         <v>4.6178801743276293E-2</v>
       </c>
-      <c r="L35" s="22">
+      <c r="L35" s="21">
         <f t="shared" si="5"/>
         <v>5.1793600247638932E-2</v>
       </c>
-      <c r="M35" s="22">
+      <c r="M35" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N35" s="22">
+      <c r="N35" s="21">
         <f t="shared" si="5"/>
         <v>0.10048539197724805</v>
       </c>
@@ -6891,10 +6904,10 @@
       <c r="N83" s="1">
         <v>-341085000</v>
       </c>
-      <c r="U83" s="61" t="s">
+      <c r="U83" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="V83" s="62"/>
+      <c r="V83" s="59"/>
     </row>
     <row r="84" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6939,10 +6952,10 @@
       <c r="N84" s="1">
         <v>194524000</v>
       </c>
-      <c r="U84" s="63" t="s">
+      <c r="U84" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="V84" s="64"/>
+      <c r="V84" s="61"/>
     </row>
     <row r="85" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6987,10 +7000,10 @@
       <c r="N85" s="1">
         <v>164545000</v>
       </c>
-      <c r="U85" s="23" t="s">
+      <c r="U85" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="V85" s="24">
+      <c r="V85" s="23">
         <f>N17</f>
         <v>3316000</v>
       </c>
@@ -7038,10 +7051,10 @@
       <c r="N86" s="1">
         <v>133051000</v>
       </c>
-      <c r="U86" s="23" t="s">
+      <c r="U86" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="V86" s="24">
+      <c r="V86" s="23">
         <f>N56</f>
         <v>0</v>
       </c>
@@ -7089,10 +7102,10 @@
       <c r="N87" s="10">
         <v>31284000</v>
       </c>
-      <c r="U87" s="23" t="s">
+      <c r="U87" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="V87" s="24">
+      <c r="V87" s="23">
         <f>N61</f>
         <v>716092000</v>
       </c>
@@ -7140,10 +7153,10 @@
       <c r="N88" s="1">
         <v>-169341000</v>
       </c>
-      <c r="U88" s="33" t="s">
+      <c r="U88" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="V88" s="34">
+      <c r="V88" s="31">
         <f>V85/(V86+V87)</f>
         <v>4.6306899113521729E-3</v>
       </c>
@@ -7204,10 +7217,10 @@
         <f t="shared" si="7"/>
         <v>5.4445597967256315E-2</v>
       </c>
-      <c r="U89" s="23" t="s">
+      <c r="U89" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="V89" s="24">
+      <c r="V89" s="23">
         <f>N27</f>
         <v>83376000</v>
       </c>
@@ -7255,10 +7268,10 @@
       <c r="N90" s="1">
         <v>24362000</v>
       </c>
-      <c r="U90" s="23" t="s">
+      <c r="U90" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="V90" s="24">
+      <c r="V90" s="23">
         <f>N25</f>
         <v>177155000</v>
       </c>
@@ -7306,10 +7319,10 @@
       <c r="N91" s="1">
         <v>-507171000</v>
       </c>
-      <c r="U91" s="33" t="s">
+      <c r="U91" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="V91" s="34">
+      <c r="V91" s="31">
         <f>V89/V90</f>
         <v>0.47063870621771897</v>
       </c>
@@ -7357,10 +7370,10 @@
       <c r="N92" s="1">
         <v>231210000</v>
       </c>
-      <c r="U92" s="35" t="s">
+      <c r="U92" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="V92" s="36">
+      <c r="V92" s="33">
         <f>V88*(1-V91)</f>
         <v>2.4513080025779423E-3</v>
       </c>
@@ -7408,10 +7421,10 @@
       <c r="N93" s="1">
         <v>3896000</v>
       </c>
-      <c r="U93" s="65" t="s">
+      <c r="U93" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="V93" s="66"/>
+      <c r="V93" s="63"/>
     </row>
     <row r="94" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7456,10 +7469,10 @@
       <c r="N94" s="10">
         <v>-417044000</v>
       </c>
-      <c r="U94" s="23" t="s">
+      <c r="U94" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="V94" s="37">
+      <c r="V94" s="34">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -7506,12 +7519,12 @@
       <c r="N95" s="1">
         <v>-138000</v>
       </c>
-      <c r="U95" s="23" t="s">
+      <c r="U95" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="V95" s="38" cm="1">
+      <c r="V95" s="35" cm="1">
         <f t="array" ref="V95">_FV(A1,"Beta")</f>
-        <v>1.423</v>
+        <v>1.4195</v>
       </c>
     </row>
     <row r="96" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7557,10 +7570,10 @@
       <c r="N96" s="1">
         <v>650526000</v>
       </c>
-      <c r="U96" s="23" t="s">
+      <c r="U96" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="V96" s="37">
+      <c r="V96" s="34">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -7607,12 +7620,12 @@
       <c r="N97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="U97" s="35" t="s">
+      <c r="U97" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="V97" s="36">
+      <c r="V97" s="33">
         <f>(V94)+((V95)*(V96-V94))</f>
-        <v>0.10221015</v>
+        <v>0.10205947500000001</v>
       </c>
     </row>
     <row r="98" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -7658,10 +7671,10 @@
       <c r="N98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="U98" s="65" t="s">
+      <c r="U98" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="V98" s="66"/>
+      <c r="V98" s="63"/>
     </row>
     <row r="99" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7706,10 +7719,10 @@
       <c r="N99" s="1">
         <v>4219000</v>
       </c>
-      <c r="U99" s="23" t="s">
+      <c r="U99" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="V99" s="24">
+      <c r="V99" s="23">
         <f>V86+V87</f>
         <v>716092000</v>
       </c>
@@ -7757,12 +7770,12 @@
       <c r="N100" s="10">
         <v>654607000</v>
       </c>
-      <c r="U100" s="33" t="s">
+      <c r="U100" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="V100" s="34">
+      <c r="V100" s="31">
         <f>V99/V103</f>
-        <v>3.8420885571334232E-2</v>
+        <v>4.1040970142299342E-2</v>
       </c>
     </row>
     <row r="101" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7808,12 +7821,12 @@
       <c r="N101" s="1">
         <v>-15824000</v>
       </c>
-      <c r="U101" s="23" t="s">
+      <c r="U101" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="V101" s="39" cm="1">
+      <c r="V101" s="36" cm="1">
         <f t="array" ref="V101">_FV(A1,"Market cap",TRUE)</f>
-        <v>17922000000</v>
+        <v>16732131020</v>
       </c>
     </row>
     <row r="102" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7859,12 +7872,12 @@
       <c r="N102" s="10">
         <v>253023000</v>
       </c>
-      <c r="U102" s="33" t="s">
+      <c r="U102" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="V102" s="34">
+      <c r="V102" s="31">
         <f>V101/V103</f>
-        <v>0.96157911442866573</v>
+        <v>0.95895902985770065</v>
       </c>
     </row>
     <row r="103" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7910,12 +7923,12 @@
       <c r="N103" s="1">
         <v>530089000</v>
       </c>
-      <c r="U103" s="35" t="s">
+      <c r="U103" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="V103" s="40">
+      <c r="V103" s="37">
         <f>V99+V101</f>
-        <v>18638092000</v>
+        <v>17448223020</v>
       </c>
     </row>
     <row r="104" spans="1:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7961,10 +7974,10 @@
       <c r="N104" s="11">
         <v>783112000</v>
       </c>
-      <c r="U104" s="63" t="s">
+      <c r="U104" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="V104" s="64"/>
+      <c r="V104" s="61"/>
     </row>
     <row r="105" spans="1:22" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -8019,18 +8032,28 @@
         <f t="shared" si="8"/>
         <v>-3.1279478405622863</v>
       </c>
-      <c r="O105" s="15"/>
-      <c r="P105" s="15"/>
-      <c r="Q105" s="15"/>
-      <c r="R105" s="15"/>
-      <c r="S105" s="15"/>
+      <c r="O105" s="64">
+        <v>289400000</v>
+      </c>
+      <c r="P105" s="64">
+        <v>456900000</v>
+      </c>
+      <c r="Q105" s="64">
+        <v>650400000</v>
+      </c>
+      <c r="R105" s="64">
+        <v>816100000</v>
+      </c>
+      <c r="S105" s="64">
+        <v>1016000000</v>
+      </c>
       <c r="T105" s="15"/>
-      <c r="U105" s="25" t="s">
+      <c r="U105" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="V105" s="26">
+      <c r="V105" s="25">
         <f>(V100*V92)+(V102*V97)</f>
-        <v>9.8377326946888236E-2</v>
+        <v>9.7971459192329649E-2</v>
       </c>
     </row>
     <row r="106" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -8076,35 +8099,35 @@
       <c r="N106" s="1">
         <v>-138057000</v>
       </c>
-      <c r="O106" s="41">
+      <c r="O106" s="38">
         <f>N106*(1+$V$106)</f>
-        <v>-160124272.21321979</v>
-      </c>
-      <c r="P106" s="41">
+        <v>-162860241.57189405</v>
+      </c>
+      <c r="P106" s="38">
         <f t="shared" ref="P106:S106" si="9">O106*(1+$V$106)</f>
-        <v>-185718815.79212436</v>
-      </c>
-      <c r="Q106" s="41">
+        <v>-192119619.32285714</v>
+      </c>
+      <c r="Q106" s="38">
         <f t="shared" si="9"/>
-        <v>-215404435.95771998</v>
-      </c>
-      <c r="R106" s="41">
+        <v>-226635720.12734479</v>
+      </c>
+      <c r="R106" s="38">
         <f t="shared" si="9"/>
-        <v>-249835057.54310921</v>
-      </c>
-      <c r="S106" s="41">
+        <v>-267352963.83928046</v>
+      </c>
+      <c r="S106" s="38">
         <f t="shared" si="9"/>
-        <v>-289769129.86982369</v>
-      </c>
-      <c r="T106" s="42" t="s">
+        <v>-315385444.24279153</v>
+      </c>
+      <c r="T106" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="U106" s="43" t="s">
+      <c r="U106" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="V106" s="44">
+      <c r="V106" s="41">
         <f>(SUM(O4:S4)/5)</f>
-        <v>0.15984174806941925</v>
+        <v>0.17965942742413685</v>
       </c>
     </row>
     <row r="107" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -8122,139 +8145,139 @@
       <c r="L107" s="13"/>
       <c r="M107" s="13"/>
       <c r="N107" s="13"/>
-      <c r="O107" s="42"/>
-      <c r="P107" s="42"/>
-      <c r="Q107" s="42"/>
-      <c r="R107" s="42"/>
-      <c r="S107" s="45">
-        <f>S106*(1+V107)/(V108-V107)</f>
-        <v>-4047753856.3315706</v>
-      </c>
-      <c r="T107" s="46" t="s">
+      <c r="O107" s="39"/>
+      <c r="P107" s="39"/>
+      <c r="Q107" s="39"/>
+      <c r="R107" s="39"/>
+      <c r="S107" s="65">
+        <f>S105*(1+V107)/(V108-V107)</f>
+        <v>14271333087.299234</v>
+      </c>
+      <c r="T107" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="U107" s="47" t="s">
+      <c r="U107" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="V107" s="48">
+      <c r="V107" s="45">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="O108" s="45">
+      <c r="O108" s="42">
         <f t="shared" ref="O108:Q108" si="10">O107+O106</f>
-        <v>-160124272.21321979</v>
-      </c>
-      <c r="P108" s="45">
+        <v>-162860241.57189405</v>
+      </c>
+      <c r="P108" s="42">
         <f t="shared" si="10"/>
-        <v>-185718815.79212436</v>
-      </c>
-      <c r="Q108" s="45">
+        <v>-192119619.32285714</v>
+      </c>
+      <c r="Q108" s="42">
         <f t="shared" si="10"/>
-        <v>-215404435.95771998</v>
-      </c>
-      <c r="R108" s="45">
+        <v>-226635720.12734479</v>
+      </c>
+      <c r="R108" s="42">
         <f>R107+R106</f>
-        <v>-249835057.54310921</v>
-      </c>
-      <c r="S108" s="45">
-        <f>S107+S106</f>
-        <v>-4337522986.2013941</v>
-      </c>
-      <c r="T108" s="46" t="s">
+        <v>-267352963.83928046</v>
+      </c>
+      <c r="S108" s="65">
+        <f>S107+S105</f>
+        <v>15287333087.299234</v>
+      </c>
+      <c r="T108" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="U108" s="49" t="s">
+      <c r="U108" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="V108" s="50">
+      <c r="V108" s="47">
         <f>V105</f>
-        <v>9.8377326946888236E-2</v>
+        <v>9.7971459192329649E-2</v>
       </c>
     </row>
     <row r="109" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="O109" s="59" t="s">
+      <c r="O109" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="P109" s="60"/>
+      <c r="P109" s="57"/>
     </row>
     <row r="110" spans="1:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="O110" s="51" t="s">
+      <c r="O110" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="P110" s="39">
+      <c r="P110" s="36">
         <f>NPV(V108,O108,P108,Q108,R108,S108)</f>
-        <v>-3347142856.1336474</v>
+        <v>8917370584.8230877</v>
       </c>
     </row>
     <row r="111" spans="1:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="O111" s="51" t="s">
+      <c r="O111" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="P111" s="39">
+      <c r="P111" s="36">
         <f>N40</f>
         <v>1024229000</v>
       </c>
     </row>
     <row r="112" spans="1:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="O112" s="51" t="s">
+      <c r="O112" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="P112" s="39">
+      <c r="P112" s="36">
         <f>V99</f>
         <v>716092000</v>
       </c>
     </row>
     <row r="113" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O113" s="51" t="s">
+      <c r="O113" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="P113" s="39">
+      <c r="P113" s="36">
         <f>P110+P111-P112</f>
-        <v>-3039005856.1336474</v>
+        <v>9225507584.8230877</v>
       </c>
     </row>
     <row r="114" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O114" s="51" t="s">
+      <c r="O114" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="P114" s="52">
+      <c r="P114" s="49">
         <f>N34*(1+(5*T16))</f>
         <v>72898725.091715693</v>
       </c>
     </row>
     <row r="115" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O115" s="53" t="s">
+      <c r="O115" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="P115" s="54">
+      <c r="P115" s="51">
         <f>P113/P114</f>
-        <v>-41.688052188981338</v>
+        <v>126.55238583687503</v>
       </c>
     </row>
     <row r="116" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O116" s="51" t="s">
+      <c r="O116" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="P116" s="55" cm="1">
+      <c r="P116" s="52" cm="1">
         <f t="array" ref="P116">_FV(A1,"Price")</f>
-        <v>319.2</v>
+        <v>296.95999999999998</v>
       </c>
     </row>
     <row r="117" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O117" s="56" t="s">
+      <c r="O117" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="P117" s="57">
+      <c r="P117" s="54">
         <f>P115/P116-1</f>
-        <v>-1.1306016672587136</v>
+        <v>-0.57384029553854043</v>
       </c>
     </row>
     <row r="118" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O118" s="56" t="s">
+      <c r="O118" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="P118" s="58" t="str">
+      <c r="P118" s="55" t="str">
         <f>IF(P115&gt;P116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Hardware/SolarEdge.xlsx
+++ b/Technology/Hardware/SolarEdge.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A92EE7-4E67-BB40-B656-F7BB47393FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71479D83-FFF7-B94E-96F1-441384B039A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,7 +565,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1004,6 +1004,20 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1027,20 +1041,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2321,11 +2321,9 @@
     <v>Powered by Refinitiv</v>
     <v>375.9</v>
     <v>190.15</v>
-    <v>1.4195</v>
-    <v>8.76</v>
-    <v>3.0395999999999999E-2</v>
-    <v>-0.86</v>
-    <v>-2.8960000000000001E-3</v>
+    <v>1.3622000000000001</v>
+    <v>-7.42</v>
+    <v>-2.9446E-2</v>
     <v>USD</v>
     <v>SolarEdge Technologies, Inc. offers an inverter solution for a solar photovoltaic (PV) system. The Company's products include SolarEdge Power Optimizer, SolarEdge Inverter, StorEdge Solutions and SolarEdge Monitoring Software. Its product roadmap consists of categories, including power optimizers, inverters, monitoring services, energy storage and smart energy management. The Company's power optimizers provide module-level maximum power point (MPP) tracking and real-time adjustments of current and voltage to the optimal working point of each individual PV module. The Company's solution consists of a direct current (DC) power optimizer, an inverter and a cloud-based monitoring platform that operates as a single integrated system.</v>
     <v>4926</v>
@@ -2333,25 +2331,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 HaMada St., POB 12001, HERZLIYA, 4672505 IL</v>
-    <v>297.57</v>
+    <v>251.63</v>
     <v>Renewable Energy</v>
     <v>Stock</v>
-    <v>45071.981041423438</v>
+    <v>45099.997486758592</v>
     <v>0</v>
-    <v>287.11009999999999</v>
-    <v>16732131020</v>
+    <v>238.46</v>
+    <v>13780230616</v>
     <v>SOLAREDGE TECHNOLOGIES, INC.</v>
     <v>SOLAREDGE TECHNOLOGIES, INC.</v>
-    <v>290</v>
-    <v>87.122600000000006</v>
-    <v>288.2</v>
-    <v>296.95999999999998</v>
-    <v>296.10000000000002</v>
+    <v>251.18</v>
+    <v>71.752300000000005</v>
+    <v>251.99</v>
+    <v>244.57</v>
     <v>56344730</v>
     <v>SEDG</v>
     <v>SOLAREDGE TECHNOLOGIES, INC. (XNAS:SEDG)</v>
-    <v>1049292</v>
-    <v>1183282</v>
+    <v>291</v>
+    <v>925007</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2383,8 +2380,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2405,7 +2400,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2422,7 +2416,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2433,16 +2427,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2508,19 +2499,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2565,9 +2550,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2575,9 +2557,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2939,10 +2918,10 @@
   <dimension ref="A1:Y118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S13" sqref="S13"/>
+      <selection pane="bottomRight" activeCell="M113" sqref="M113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3732,7 +3711,7 @@
         <f>N22/(N72+N56+N61)</f>
         <v>5.7432121745588011E-2</v>
       </c>
-      <c r="W13" s="68">
+      <c r="W13" s="60">
         <f>N67/N72</f>
         <v>0.96012481356536539</v>
       </c>
@@ -3884,17 +3863,17 @@
         <f>(N35+M35+L35+K35+J35)/5</f>
         <v>5.0939451955917724E-2</v>
       </c>
-      <c r="U16" s="66">
+      <c r="U16" s="58">
         <f>V101/N3</f>
-        <v>5.3796238279588424</v>
-      </c>
-      <c r="V16" s="66">
+        <v>4.4305448533716749</v>
+      </c>
+      <c r="V16" s="58">
         <f>V101/N28</f>
-        <v>178.42087269004787</v>
-      </c>
-      <c r="W16" s="67">
+        <v>146.94367199479629</v>
+      </c>
+      <c r="W16" s="59">
         <f>V101/N106</f>
-        <v>-121.19726649137675</v>
+        <v>-99.815515446518461</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -4038,9 +4017,9 @@
         <f>N40-N56-N61</f>
         <v>308137000</v>
       </c>
-      <c r="U19" s="69">
+      <c r="U19" s="61">
         <f>V101/O3</f>
-        <v>4.0641561865435998</v>
+        <v>3.3471534165654604</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6904,10 +6883,10 @@
       <c r="N83" s="1">
         <v>-341085000</v>
       </c>
-      <c r="U83" s="58" t="s">
+      <c r="U83" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="V83" s="59"/>
+      <c r="V83" s="65"/>
     </row>
     <row r="84" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6952,10 +6931,10 @@
       <c r="N84" s="1">
         <v>194524000</v>
       </c>
-      <c r="U84" s="60" t="s">
+      <c r="U84" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="V84" s="61"/>
+      <c r="V84" s="67"/>
     </row>
     <row r="85" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7421,10 +7400,10 @@
       <c r="N93" s="1">
         <v>3896000</v>
       </c>
-      <c r="U93" s="62" t="s">
+      <c r="U93" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="V93" s="63"/>
+      <c r="V93" s="69"/>
     </row>
     <row r="94" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7524,7 +7503,7 @@
       </c>
       <c r="V95" s="35" cm="1">
         <f t="array" ref="V95">_FV(A1,"Beta")</f>
-        <v>1.4195</v>
+        <v>1.3622000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7625,7 +7604,7 @@
       </c>
       <c r="V97" s="33">
         <f>(V94)+((V95)*(V96-V94))</f>
-        <v>0.10205947500000001</v>
+        <v>9.9592710000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -7671,10 +7650,10 @@
       <c r="N98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="U98" s="62" t="s">
+      <c r="U98" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="V98" s="63"/>
+      <c r="V98" s="69"/>
     </row>
     <row r="99" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7775,7 +7754,7 @@
       </c>
       <c r="V100" s="31">
         <f>V99/V103</f>
-        <v>4.1040970142299342E-2</v>
+        <v>4.9398183178513771E-2</v>
       </c>
     </row>
     <row r="101" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7826,7 +7805,7 @@
       </c>
       <c r="V101" s="36" cm="1">
         <f t="array" ref="V101">_FV(A1,"Market cap",TRUE)</f>
-        <v>16732131020</v>
+        <v>13780230616</v>
       </c>
     </row>
     <row r="102" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7877,7 +7856,7 @@
       </c>
       <c r="V102" s="31">
         <f>V101/V103</f>
-        <v>0.95895902985770065</v>
+        <v>0.95060181682148626</v>
       </c>
     </row>
     <row r="103" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7928,7 +7907,7 @@
       </c>
       <c r="V103" s="37">
         <f>V99+V101</f>
-        <v>17448223020</v>
+        <v>14496322616</v>
       </c>
     </row>
     <row r="104" spans="1:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7974,10 +7953,10 @@
       <c r="N104" s="11">
         <v>783112000</v>
       </c>
-      <c r="U104" s="60" t="s">
+      <c r="U104" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="V104" s="61"/>
+      <c r="V104" s="67"/>
     </row>
     <row r="105" spans="1:22" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -8032,19 +8011,19 @@
         <f t="shared" si="8"/>
         <v>-3.1279478405622863</v>
       </c>
-      <c r="O105" s="64">
+      <c r="O105" s="56">
         <v>289400000</v>
       </c>
-      <c r="P105" s="64">
+      <c r="P105" s="56">
         <v>456900000</v>
       </c>
-      <c r="Q105" s="64">
+      <c r="Q105" s="56">
         <v>650400000</v>
       </c>
-      <c r="R105" s="64">
+      <c r="R105" s="56">
         <v>816100000</v>
       </c>
-      <c r="S105" s="64">
+      <c r="S105" s="56">
         <v>1016000000</v>
       </c>
       <c r="T105" s="15"/>
@@ -8053,7 +8032,7 @@
       </c>
       <c r="V105" s="25">
         <f>(V100*V92)+(V102*V97)</f>
-        <v>9.7971459192329649E-2</v>
+        <v>9.4794101229913705E-2</v>
       </c>
     </row>
     <row r="106" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -8149,9 +8128,9 @@
       <c r="P107" s="39"/>
       <c r="Q107" s="39"/>
       <c r="R107" s="39"/>
-      <c r="S107" s="65">
+      <c r="S107" s="57">
         <f>S105*(1+V107)/(V108-V107)</f>
-        <v>14271333087.299234</v>
+        <v>14921031744.064592</v>
       </c>
       <c r="T107" s="43" t="s">
         <v>148</v>
@@ -8180,9 +8159,9 @@
         <f>R107+R106</f>
         <v>-267352963.83928046</v>
       </c>
-      <c r="S108" s="65">
+      <c r="S108" s="57">
         <f>S107+S105</f>
-        <v>15287333087.299234</v>
+        <v>15937031744.064592</v>
       </c>
       <c r="T108" s="43" t="s">
         <v>144</v>
@@ -8192,14 +8171,14 @@
       </c>
       <c r="V108" s="47">
         <f>V105</f>
-        <v>9.7971459192329649E-2</v>
+        <v>9.4794101229913705E-2</v>
       </c>
     </row>
     <row r="109" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="O109" s="56" t="s">
+      <c r="O109" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="P109" s="57"/>
+      <c r="P109" s="63"/>
     </row>
     <row r="110" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="O110" s="48" t="s">
@@ -8207,7 +8186,7 @@
       </c>
       <c r="P110" s="36">
         <f>NPV(V108,O108,P108,Q108,R108,S108)</f>
-        <v>8917370584.8230877</v>
+        <v>9465298757.995306</v>
       </c>
     </row>
     <row r="111" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -8234,7 +8213,7 @@
       </c>
       <c r="P113" s="36">
         <f>P110+P111-P112</f>
-        <v>9225507584.8230877</v>
+        <v>9773435757.995306</v>
       </c>
     </row>
     <row r="114" spans="15:16" ht="20" x14ac:dyDescent="0.25">
@@ -8252,7 +8231,7 @@
       </c>
       <c r="P115" s="51">
         <f>P113/P114</f>
-        <v>126.55238583687503</v>
+        <v>134.06867878277851</v>
       </c>
     </row>
     <row r="116" spans="15:16" ht="20" x14ac:dyDescent="0.25">
@@ -8261,7 +8240,7 @@
       </c>
       <c r="P116" s="52" cm="1">
         <f t="array" ref="P116">_FV(A1,"Price")</f>
-        <v>296.95999999999998</v>
+        <v>244.57</v>
       </c>
     </row>
     <row r="117" spans="15:16" ht="20" x14ac:dyDescent="0.25">
@@ -8270,7 +8249,7 @@
       </c>
       <c r="P117" s="54">
         <f>P115/P116-1</f>
-        <v>-0.57384029553854043</v>
+        <v>-0.45181878896521033</v>
       </c>
     </row>
     <row r="118" spans="15:16" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/SolarEdge.xlsx
+++ b/Technology/Hardware/SolarEdge.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71479D83-FFF7-B94E-96F1-441384B039A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A669B12-4D4F-144D-9F62-94DAB44A99F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -510,9 +510,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -553,19 +550,47 @@
   </si>
   <si>
     <t>`</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -728,7 +753,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -834,22 +859,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -857,47 +873,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -936,77 +917,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1015,31 +941,71 @@
     <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1092,20 +1058,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>SEDG</a:t>
+              <a:t>SolarEdge</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.46199997397019588"/>
-          <c:y val="2.0287406703221864E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1139,10 +1096,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7709090909090903E-2"/>
-          <c:y val="0.11615667415744696"/>
-          <c:w val="0.85278677685950399"/>
-          <c:h val="0.77593633126655004"/>
+          <c:x val="8.785430463576159E-2"/>
+          <c:y val="0.14519605926384843"/>
+          <c:w val="0.8525430463576158"/>
+          <c:h val="0.64704946832931431"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1202,6 +1159,48 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$D$1:$N$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$D$3:$N$3</c:f>
@@ -1246,7 +1245,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8DD2-0F4A-BB40-C5E52A76363B}"/>
+              <c16:uniqueId val="{00000000-710C-F741-9208-1DDBC0BC1586}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1255,11 +1254,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19:$C$19</c:f>
+              <c:f>'Sheet 1'!$A$28:$C$28</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>- -</c:v>
@@ -1303,51 +1302,93 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$D$1:$N$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$D$19:$N$19</c:f>
+              <c:f>'Sheet 1'!$D$28:$N$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-26406000</c:v>
+                  <c:v>-27783000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-25160000</c:v>
+                  <c:v>-28180000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-17190000</c:v>
+                  <c:v>-21378000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26224000</c:v>
+                  <c:v>21121000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76077000</c:v>
+                  <c:v>76609000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>107399000</c:v>
+                  <c:v>84172000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>153065000</c:v>
+                  <c:v>128833000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>211895000</c:v>
+                  <c:v>146549000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>204015000</c:v>
+                  <c:v>140322000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>236038000</c:v>
+                  <c:v>169170000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>230147000</c:v>
+                  <c:v>93779000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8DD2-0F4A-BB40-C5E52A76363B}"/>
+              <c16:uniqueId val="{00000001-710C-F741-9208-1DDBC0BC1586}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1356,11 +1397,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106:$C$106</c:f>
+              <c:f>'Sheet 1'!$A$107:$C$107</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>- -</c:v>
@@ -1404,9 +1445,51 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$D$1:$N$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$D$106:$N$106</c:f>
+              <c:f>'Sheet 1'!$D$107:$N$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1448,7 +1531,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8DD2-0F4A-BB40-C5E52A76363B}"/>
+              <c16:uniqueId val="{00000002-710C-F741-9208-1DDBC0BC1586}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1462,11 +1545,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1505100384"/>
-        <c:axId val="1440895872"/>
+        <c:axId val="765297312"/>
+        <c:axId val="765299584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1505100384"/>
+        <c:axId val="765297312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1494,7 +1577,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1506,7 +1589,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1440895872"/>
+        <c:crossAx val="765299584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1514,9 +1597,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1440895872"/>
+        <c:axId val="765299584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1562,7 +1646,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1505100384"/>
+        <c:crossAx val="765297312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1580,10 +1664,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.2916023166525672"/>
-          <c:y val="0.91772666739675302"/>
-          <c:w val="0.42472925099238634"/>
-          <c:h val="4.6206831797519256E-2"/>
+          <c:x val="0.30575262032643269"/>
+          <c:y val="0.8988684267685868"/>
+          <c:w val="0.43617687855243259"/>
+          <c:h val="6.0090894255158997E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2163,22 +2247,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>17462</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>1603374</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
+      <xdr:colOff>1587500</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{247CD69B-C00D-FF49-4278-24261129E3AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCD05D9F-7DCE-3DE9-2F41-E77F83365F49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2197,6 +2281,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2918,10 +3056,10 @@
   <dimension ref="A1:Y118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M113" sqref="M113"/>
+      <selection pane="bottomRight" activeCell="W95" sqref="W95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2974,19 +3112,19 @@
       <c r="N1" s="8">
         <v>2022</v>
       </c>
-      <c r="O1" s="26">
+      <c r="O1" s="22">
         <v>2023</v>
       </c>
-      <c r="P1" s="26">
+      <c r="P1" s="22">
         <v>2024</v>
       </c>
-      <c r="Q1" s="26">
+      <c r="Q1" s="22">
         <v>2025</v>
       </c>
-      <c r="R1" s="26">
+      <c r="R1" s="22">
         <v>2026</v>
       </c>
-      <c r="S1" s="26">
+      <c r="S1" s="22">
         <v>2027</v>
       </c>
     </row>
@@ -2995,52 +3133,52 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
@@ -3054,10 +3192,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="1">
         <v>75351000</v>
@@ -3092,37 +3230,37 @@
       <c r="N3" s="1">
         <v>3110279000</v>
       </c>
-      <c r="O3" s="27">
-        <v>4117000000</v>
-      </c>
-      <c r="P3" s="27">
-        <v>5002000000</v>
-      </c>
-      <c r="Q3" s="27">
-        <v>5832000000</v>
-      </c>
-      <c r="R3" s="27">
+      <c r="O3" s="23">
+        <v>4101000000</v>
+      </c>
+      <c r="P3" s="23">
+        <v>5004000000</v>
+      </c>
+      <c r="Q3" s="23">
+        <v>5795000000</v>
+      </c>
+      <c r="R3" s="23">
         <v>6592000000</v>
       </c>
-      <c r="S3" s="27">
-        <v>7010000000</v>
+      <c r="S3" s="23">
+        <v>7046000000</v>
       </c>
       <c r="T3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="U3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="U3" s="19" t="s">
+      <c r="V3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="V3" s="19" t="s">
+      <c r="W3" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="W3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15" t="e">
@@ -3175,23 +3313,23 @@
       </c>
       <c r="O4" s="16">
         <f t="shared" si="0"/>
-        <v>0.32367546448405426</v>
+        <v>0.31853123144258122</v>
       </c>
       <c r="P4" s="16">
         <f t="shared" si="0"/>
-        <v>0.21496235122662122</v>
+        <v>0.22019019751280178</v>
       </c>
       <c r="Q4" s="16">
         <f t="shared" si="0"/>
-        <v>0.16593362654938026</v>
+        <v>0.1580735411670664</v>
       </c>
       <c r="R4" s="16">
         <f t="shared" si="0"/>
-        <v>0.13031550068587117</v>
+        <v>0.137532355478861</v>
       </c>
       <c r="S4" s="16">
         <f t="shared" si="0"/>
-        <v>6.3410194174757351E-2</v>
+        <v>6.887135922330101E-2</v>
       </c>
       <c r="T4" s="17">
         <f>(N4+M4+L4)/3</f>
@@ -3206,7 +3344,7 @@
         <v>-9.4186303642072769E-2</v>
       </c>
       <c r="W4" s="17">
-        <f>(N105+M105+L105)/3</f>
+        <f>(N106+M106+L106)/3</f>
         <v>-1.3123304184113571</v>
       </c>
     </row>
@@ -3215,10 +3353,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1">
         <v>76028000</v>
@@ -3259,10 +3397,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="10">
         <v>-677000</v>
@@ -3298,16 +3436,16 @@
         <v>844648000</v>
       </c>
       <c r="T6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="U6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="U6" s="19" t="s">
+      <c r="V6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="V6" s="19" t="s">
+      <c r="W6" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="W6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -3315,10 +3453,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2">
         <v>-8.9999999999999993E-3</v>
@@ -3366,7 +3504,7 @@
         <v>3.0200000000000001E-2</v>
       </c>
       <c r="W7" s="20">
-        <f>N106/N3</f>
+        <f>N107/N3</f>
         <v>-4.4387336312915977E-2</v>
       </c>
     </row>
@@ -3375,10 +3513,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1">
         <v>13783000</v>
@@ -3416,7 +3554,7 @@
     </row>
     <row r="9" spans="1:23" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -3471,16 +3609,16 @@
         <v>9.3179422167593326E-2</v>
       </c>
       <c r="T9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="U9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="U9" s="19" t="s">
+      <c r="V9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="V9" s="19" t="s">
+      <c r="W9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="W9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -3488,10 +3626,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1">
         <v>3074000</v>
@@ -3548,10 +3686,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1">
         <v>9926000</v>
@@ -3592,10 +3730,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="1">
         <v>13000000</v>
@@ -3631,21 +3769,21 @@
         <v>272176000</v>
       </c>
       <c r="T12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="U12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="U12" s="19" t="s">
+      <c r="V12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="V12" s="19" t="s">
+      <c r="W12" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="W12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15" t="e">
         <f>B12/B3</f>
@@ -3711,7 +3849,7 @@
         <f>N22/(N72+N56+N61)</f>
         <v>5.7432121745588011E-2</v>
       </c>
-      <c r="W13" s="60">
+      <c r="W13" s="33">
         <f>N67/N72</f>
         <v>0.96012481356536539</v>
       </c>
@@ -3721,31 +3859,31 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1">
         <v>30696000</v>
@@ -3754,7 +3892,7 @@
         <v>-3429000</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1">
         <v>116538000</v>
@@ -3765,10 +3903,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="1">
         <v>26783000</v>
@@ -3804,16 +3942,16 @@
         <v>678528000</v>
       </c>
       <c r="T15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="U15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="U15" s="19" t="s">
+      <c r="V15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="V15" s="19" t="s">
+      <c r="W15" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="W15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -3821,10 +3959,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="1">
         <v>102811000</v>
@@ -3859,32 +3997,32 @@
       <c r="N16" s="1">
         <v>2944159000</v>
       </c>
-      <c r="T16" s="28">
+      <c r="T16" s="24">
         <f>(N35+M35+L35+K35+J35)/5</f>
         <v>5.0939451955917724E-2</v>
       </c>
-      <c r="U16" s="58">
+      <c r="U16" s="31">
         <f>V101/N3</f>
         <v>4.4305448533716749</v>
       </c>
-      <c r="V16" s="58">
+      <c r="V16" s="31">
         <f>V101/N28</f>
         <v>146.94367199479629</v>
       </c>
-      <c r="W16" s="59">
-        <f>V101/N106</f>
+      <c r="W16" s="32">
+        <f>V101/N107</f>
         <v>-99.815515446518461</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1">
         <v>58000</v>
@@ -3899,10 +4037,10 @@
         <v>895000</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1">
         <v>2536000</v>
@@ -3920,15 +4058,15 @@
         <v>3316000</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="1">
         <v>1283000</v>
@@ -3964,21 +4102,27 @@
         <v>49676000</v>
       </c>
       <c r="T18" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U18" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="V18" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="W18" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" s="10">
         <v>-26406000</v>
@@ -4013,18 +4157,41 @@
       <c r="N19" s="10">
         <v>230147000</v>
       </c>
-      <c r="T19" s="29">
+      <c r="O19" s="36">
+        <v>885800000</v>
+      </c>
+      <c r="P19" s="36">
+        <v>1072000000</v>
+      </c>
+      <c r="Q19" s="36">
+        <v>1254000000</v>
+      </c>
+      <c r="R19" s="36">
+        <v>1468000000</v>
+      </c>
+      <c r="S19" s="36">
+        <v>1591000000</v>
+      </c>
+      <c r="T19" s="25">
         <f>N40-N56-N61</f>
         <v>308137000</v>
       </c>
-      <c r="U19" s="61">
+      <c r="U19" s="31">
         <f>V101/O3</f>
-        <v>3.3471534165654604</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3.3602122935869301</v>
+      </c>
+      <c r="V19" s="31">
+        <f>V101/O28</f>
+        <v>21.044945962125841</v>
+      </c>
+      <c r="W19" s="32">
+        <f>V101/O106</f>
+        <v>47.715479972299171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15" t="e">
@@ -4040,7 +4207,7 @@
         <v>-4.7186245550253747E-2</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:N20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:P20" si="3">(F19/E19)-1</f>
         <v>-0.31677265500794916</v>
       </c>
       <c r="G20" s="15">
@@ -4075,16 +4242,35 @@
         <f t="shared" si="3"/>
         <v>-2.4957845770596232E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="O20" s="16">
+        <f t="shared" si="3"/>
+        <v>2.8488444342094401</v>
+      </c>
+      <c r="P20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.21020546398735607</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>0.91</v>
+      </c>
+      <c r="R20" s="16">
+        <f t="shared" ref="R20:S20" si="4">(R19/Q19)-1</f>
+        <v>0.17065390749601272</v>
+      </c>
+      <c r="S20" s="16">
+        <f t="shared" si="4"/>
+        <v>8.3787465940054595E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21" s="2">
         <v>-0.35039999999999999</v>
@@ -4119,16 +4305,42 @@
       <c r="N21" s="2">
         <v>7.3999999999999996E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="O21" s="62">
+        <f>O19/O3</f>
+        <v>0.21599609851255791</v>
+      </c>
+      <c r="P21" s="62">
+        <f t="shared" ref="P21:S21" si="5">P19/P3</f>
+        <v>0.21422861710631494</v>
+      </c>
+      <c r="Q21" s="62">
+        <f t="shared" si="5"/>
+        <v>0.21639344262295082</v>
+      </c>
+      <c r="R21" s="62">
+        <f t="shared" si="5"/>
+        <v>0.22269417475728157</v>
+      </c>
+      <c r="S21" s="62">
+        <f t="shared" si="5"/>
+        <v>0.22580187340334942</v>
+      </c>
+      <c r="V21" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="W21" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D22" s="10">
         <v>-27460000</v>
@@ -4163,16 +4375,24 @@
       <c r="N22" s="10">
         <v>166120000</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="V22" s="34">
+        <f>(-1*N98)/V101</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="35">
+        <f>N107/V101</f>
+        <v>-1.0018482552803165E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D23" s="2">
         <v>-0.3644</v>
@@ -4208,15 +4428,15 @@
         <v>5.3400000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="1">
         <v>-287000</v>
@@ -4252,15 +4472,15 @@
         <v>11035000</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="10">
         <v>-27747000</v>
@@ -4296,15 +4516,15 @@
         <v>177155000</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="2">
         <v>-0.36820000000000003</v>
@@ -4340,15 +4560,15 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" s="1">
         <v>36000</v>
@@ -4384,15 +4604,15 @@
         <v>83376000</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="11">
         <v>-27783000</v>
@@ -4427,10 +4647,25 @@
       <c r="N28" s="11">
         <v>93779000</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O28" s="38">
+        <v>654800000</v>
+      </c>
+      <c r="P28" s="38">
+        <v>754600000</v>
+      </c>
+      <c r="Q28" s="38">
+        <v>917700000</v>
+      </c>
+      <c r="R28" s="38">
+        <v>1047000000</v>
+      </c>
+      <c r="S28" s="38">
+        <v>1200000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15" t="e">
@@ -4446,51 +4681,71 @@
         <v>1.4289313609041399E-2</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:N29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:S29" si="6">(F28/E28)-1</f>
         <v>-0.24137686302342087</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.9879782954439142</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.6271483357795558</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.8722082261875288E-2</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.53059212089530949</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.1375113519051796</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-4.2490907478044848E-2</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.20558429896951291</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.44565230241768639</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="O29" s="16">
+        <f t="shared" si="6"/>
+        <v>5.9823734524786998</v>
+      </c>
+      <c r="P29" s="16">
+        <f t="shared" si="6"/>
+        <v>0.15241295051924242</v>
+      </c>
+      <c r="Q29" s="16">
+        <f t="shared" si="6"/>
+        <v>0.21614100185528762</v>
+      </c>
+      <c r="R29" s="16">
+        <f t="shared" si="6"/>
+        <v>0.14089571755475649</v>
+      </c>
+      <c r="S29" s="16">
+        <f t="shared" si="6"/>
+        <v>0.14613180515759305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="2">
         <v>-0.36870000000000003</v>
@@ -4525,16 +4780,36 @@
       <c r="N30" s="2">
         <v>3.0200000000000001E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="O30" s="37">
+        <f>O28/O3</f>
+        <v>0.15966837356742258</v>
+      </c>
+      <c r="P30" s="37">
+        <f t="shared" ref="P30:S30" si="7">P28/P3</f>
+        <v>0.15079936051159074</v>
+      </c>
+      <c r="Q30" s="37">
+        <f t="shared" si="7"/>
+        <v>0.15836065573770491</v>
+      </c>
+      <c r="R30" s="37">
+        <f t="shared" si="7"/>
+        <v>0.15882888349514562</v>
+      </c>
+      <c r="S30" s="37">
+        <f t="shared" si="7"/>
+        <v>0.17030939540164633</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="12">
         <v>-0.73</v>
@@ -4569,16 +4844,31 @@
       <c r="N31" s="12">
         <v>1.86</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="O31" s="39">
+        <v>11.62</v>
+      </c>
+      <c r="P31" s="39">
+        <v>13.39</v>
+      </c>
+      <c r="Q31" s="39">
+        <v>16.29</v>
+      </c>
+      <c r="R31" s="39">
+        <v>18.59</v>
+      </c>
+      <c r="S31" s="39">
+        <v>21.27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D32" s="12">
         <v>-0.73</v>
@@ -4619,10 +4909,10 @@
         <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D33" s="1">
         <v>38065042</v>
@@ -4663,10 +4953,10 @@
         <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D34" s="1">
         <v>39115042</v>
@@ -4704,7 +4994,7 @@
     </row>
     <row r="35" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="21" t="e">
@@ -4712,47 +5002,47 @@
         <v>#VALUE!</v>
       </c>
       <c r="D35" s="21" t="e">
-        <f t="shared" ref="D35:N35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:N35" si="8">(D34-C34)/C34</f>
         <v>#VALUE!</v>
       </c>
       <c r="E35" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-0.19105946505183352</v>
       </c>
       <c r="F35" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.23618480815042331</v>
       </c>
       <c r="G35" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-0.60962721195595293</v>
       </c>
       <c r="H35" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.906200342016293</v>
       </c>
       <c r="I35" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.3644092002278256E-2</v>
       </c>
       <c r="J35" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.6239465811425339E-2</v>
       </c>
       <c r="K35" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.6178801743276293E-2</v>
       </c>
       <c r="L35" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.1793600247638932E-2</v>
       </c>
       <c r="M35" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N35" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.10048539197724805</v>
       </c>
     </row>
@@ -4761,43 +5051,43 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="21" x14ac:dyDescent="0.25">
@@ -4805,43 +5095,43 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -4849,10 +5139,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1">
         <v>19400000</v>
@@ -4893,22 +5183,22 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1">
         <v>59163000</v>
@@ -4937,10 +5227,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1">
         <v>19400000</v>
@@ -4981,13 +5271,13 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1">
         <v>13376000</v>
@@ -5025,13 +5315,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1">
         <v>14785000</v>
@@ -5069,13 +5359,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="1">
         <v>2870000</v>
@@ -5113,13 +5403,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="10">
         <v>44173000</v>
@@ -5157,13 +5447,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" s="1">
         <v>4339000</v>
@@ -5201,28 +5491,28 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1">
         <v>34874000</v>
@@ -5245,22 +5535,22 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1">
         <v>716000</v>
@@ -5284,7 +5574,7 @@
         <v>19929000</v>
       </c>
       <c r="Y47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -5292,22 +5582,22 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1">
         <v>716000</v>
@@ -5336,22 +5626,22 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1">
         <v>52446000</v>
@@ -5380,22 +5670,22 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1">
         <v>6296000</v>
@@ -5424,13 +5714,13 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1">
         <v>574000</v>
@@ -5468,13 +5758,13 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1">
         <v>4913000</v>
@@ -5512,43 +5802,43 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1">
         <v>55900000</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5556,10 +5846,10 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="11">
         <v>55900000</v>
@@ -5600,13 +5890,13 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1">
         <v>16468000</v>
@@ -5644,13 +5934,13 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1">
         <v>6212000</v>
@@ -5659,13 +5949,13 @@
         <v>16800000</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1">
         <v>16639000</v>
@@ -5688,43 +5978,43 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5732,13 +6022,13 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1">
         <v>3584000</v>
@@ -5776,13 +6066,13 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1">
         <v>14550000</v>
@@ -5820,13 +6110,13 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="10">
         <v>40814000</v>
@@ -5864,13 +6154,13 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1">
         <v>6611000</v>
@@ -5879,13 +6169,13 @@
         <v>3444000</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1">
         <v>3510000</v>
@@ -5908,13 +6198,13 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1">
         <v>2895000</v>
@@ -5952,28 +6242,28 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1">
         <v>1499000</v>
@@ -5988,7 +6278,7 @@
         <v>156000</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5996,13 +6286,13 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1">
         <v>8237000</v>
@@ -6040,13 +6330,13 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1">
         <v>17743000</v>
@@ -6084,43 +6374,43 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -6128,13 +6418,13 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" s="10">
         <v>58557000</v>
@@ -6172,19 +6462,19 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1">
         <v>4000</v>
@@ -6216,13 +6506,13 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1">
         <v>-119733000</v>
@@ -6260,13 +6550,13 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1">
         <v>-26000</v>
@@ -6304,13 +6594,13 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1">
         <v>4745000</v>
@@ -6348,13 +6638,13 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E72" s="10">
         <v>-9471000</v>
@@ -6392,13 +6682,13 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E73" s="11">
         <v>49086000</v>
@@ -6436,43 +6726,43 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -6480,43 +6770,43 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -6524,10 +6814,10 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1">
         <v>-27783000</v>
@@ -6568,10 +6858,10 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1">
         <v>1283000</v>
@@ -6612,31 +6902,31 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K78" s="1">
         <v>-6037000</v>
@@ -6656,10 +6946,10 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1">
         <v>842000</v>
@@ -6697,58 +6987,58 @@
     </row>
     <row r="80" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:N80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:N80" si="9">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1174370612201563E-2</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3639526791927627E-2</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8.1220865204891263E-3</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.0932022468453721E-3</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.8554924741192587E-2</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.893360459274024E-2</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.2668364565206026E-2</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.2333375419104133E-2</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.6125085744868496E-2</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.2240352570059552E-2</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.6792908288934849E-2</v>
       </c>
     </row>
@@ -6757,10 +7047,10 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1">
         <v>3305000</v>
@@ -6801,10 +7091,10 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1">
         <v>-3930000</v>
@@ -6845,10 +7135,10 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1">
         <v>-9433000</v>
@@ -6884,7 +7174,7 @@
         <v>-341085000</v>
       </c>
       <c r="U83" s="64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V83" s="65"/>
     </row>
@@ -6893,10 +7183,10 @@
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1">
         <v>15419000</v>
@@ -6932,19 +7222,19 @@
         <v>194524000</v>
       </c>
       <c r="U84" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="V84" s="67"/>
+        <v>126</v>
+      </c>
+      <c r="V84" s="66"/>
     </row>
     <row r="85" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1">
         <v>5828000</v>
@@ -6979,10 +7269,10 @@
       <c r="N85" s="1">
         <v>164545000</v>
       </c>
-      <c r="U85" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="V85" s="23">
+      <c r="U85" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="V85" s="41">
         <f>N17</f>
         <v>3316000</v>
       </c>
@@ -6992,10 +7282,10 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1">
         <v>15000</v>
@@ -7030,10 +7320,10 @@
       <c r="N86" s="1">
         <v>133051000</v>
       </c>
-      <c r="U86" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="V86" s="23">
+      <c r="U86" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="V86" s="41">
         <f>N56</f>
         <v>0</v>
       </c>
@@ -7043,10 +7333,10 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10">
         <v>-22338000</v>
@@ -7081,10 +7371,10 @@
       <c r="N87" s="10">
         <v>31284000</v>
       </c>
-      <c r="U87" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="V87" s="23">
+      <c r="U87" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="V87" s="41">
         <f>N61</f>
         <v>716092000</v>
       </c>
@@ -7094,10 +7384,10 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1">
         <v>-4013000</v>
@@ -7132,74 +7422,74 @@
       <c r="N88" s="1">
         <v>-169341000</v>
       </c>
-      <c r="U88" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="V88" s="31">
+      <c r="U88" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="V88" s="43">
         <f>V85/(V86+V87)</f>
         <v>4.6306899113521729E-3</v>
       </c>
     </row>
     <row r="89" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15" t="e">
+        <f t="shared" ref="B89:N89" si="10">(-1*B88)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="15" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="10"/>
+        <v>5.325742193202479E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="10"/>
+        <v>1.9472385651926362E-2</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="10"/>
+        <v>2.2444582898579011E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="10"/>
+        <v>3.6191314084619688E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="10"/>
+        <v>3.2030671051745153E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="10"/>
+        <v>3.5223088897857656E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="10"/>
+        <v>4.1193422794874722E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="10"/>
+        <v>5.0897128347572353E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="10"/>
+        <v>8.688584916715264E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="10"/>
+        <v>7.5998604792080926E-2</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="10"/>
+        <v>5.4445597967256315E-2</v>
+      </c>
+      <c r="U89" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:N89" si="7">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.325742193202479E-2</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.9472385651926362E-2</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.2444582898579011E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.6191314084619688E-2</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.2030671051745153E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.5223088897857656E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.1193422794874722E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.0897128347572353E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.688584916715264E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.5998604792080926E-2</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.4445597967256315E-2</v>
-      </c>
-      <c r="U89" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="V89" s="23">
+      <c r="V89" s="41">
         <f>N27</f>
         <v>83376000</v>
       </c>
@@ -7209,28 +7499,28 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1">
         <v>-94737000</v>
@@ -7239,7 +7529,7 @@
         <v>-38435000</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1">
         <v>-16643000</v>
@@ -7247,10 +7537,10 @@
       <c r="N90" s="1">
         <v>24362000</v>
       </c>
-      <c r="U90" s="22" t="s">
+      <c r="U90" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="V90" s="23">
+      <c r="V90" s="41">
         <f>N25</f>
         <v>177155000</v>
       </c>
@@ -7260,22 +7550,22 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1">
         <v>-118511000</v>
@@ -7298,10 +7588,10 @@
       <c r="N91" s="1">
         <v>-507171000</v>
       </c>
-      <c r="U91" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="V91" s="31">
+      <c r="U91" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="V91" s="43">
         <f>V89/V90</f>
         <v>0.47063870621771897</v>
       </c>
@@ -7311,22 +7601,22 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1">
         <v>6350000</v>
@@ -7349,23 +7639,23 @@
       <c r="N92" s="1">
         <v>231210000</v>
       </c>
-      <c r="U92" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="V92" s="33">
+      <c r="U92" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="V92" s="43">
         <f>V88*(1-V91)</f>
         <v>2.4513080025779423E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1">
         <v>1835000</v>
@@ -7386,7 +7676,7 @@
         <v>-619000</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K93" s="1">
         <v>-29406000</v>
@@ -7400,20 +7690,20 @@
       <c r="N93" s="1">
         <v>3896000</v>
       </c>
-      <c r="U93" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="V93" s="69"/>
+      <c r="U93" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="V93" s="66"/>
     </row>
     <row r="94" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10">
         <v>-2178000</v>
@@ -7448,11 +7738,12 @@
       <c r="N94" s="10">
         <v>-417044000</v>
       </c>
-      <c r="U94" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="V94" s="34">
-        <v>4.095E-2</v>
+      <c r="U94" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="V94" s="44">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7460,10 +7751,10 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1">
         <v>-2200000</v>
@@ -7478,10 +7769,10 @@
         <v>-42245000</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1">
         <v>-3786000</v>
@@ -7498,10 +7789,10 @@
       <c r="N95" s="1">
         <v>-138000</v>
       </c>
-      <c r="U95" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="V95" s="35" cm="1">
+      <c r="U95" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="V95" s="45" cm="1">
         <f t="array" ref="V95">_FV(A1,"Beta")</f>
         <v>1.3622000000000001</v>
       </c>
@@ -7511,48 +7802,48 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="1">
         <v>131402000</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N96" s="1">
         <v>650526000</v>
       </c>
-      <c r="U96" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="V96" s="34">
+      <c r="U96" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="V96" s="44">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -7561,109 +7852,109 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U97" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="V97" s="33">
+        <v>91</v>
+      </c>
+      <c r="U97" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="V97" s="43">
         <f>(V94)+((V95)*(V96-V94))</f>
-        <v>9.9592710000000001E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+        <v>0.10025553600000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U98" s="68" t="s">
-        <v>139</v>
-      </c>
-      <c r="V98" s="69"/>
+        <v>91</v>
+      </c>
+      <c r="N98" s="1">
+        <v>0</v>
+      </c>
+      <c r="U98" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="V98" s="66"/>
     </row>
     <row r="99" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1">
         <v>42617000</v>
@@ -7698,10 +7989,10 @@
       <c r="N99" s="1">
         <v>4219000</v>
       </c>
-      <c r="U99" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="V99" s="23">
+      <c r="U99" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="V99" s="41">
         <f>V86+V87</f>
         <v>716092000</v>
       </c>
@@ -7711,10 +8002,10 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10">
         <v>40417000</v>
@@ -7749,10 +8040,10 @@
       <c r="N100" s="10">
         <v>654607000</v>
       </c>
-      <c r="U100" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="V100" s="31">
+      <c r="U100" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="V100" s="43">
         <f>V99/V103</f>
         <v>4.9398183178513771E-2</v>
       </c>
@@ -7762,10 +8053,10 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1">
         <v>43000</v>
@@ -7800,10 +8091,10 @@
       <c r="N101" s="1">
         <v>-15824000</v>
       </c>
-      <c r="U101" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="V101" s="36" cm="1">
+      <c r="U101" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="V101" s="46" cm="1">
         <f t="array" ref="V101">_FV(A1,"Market cap",TRUE)</f>
         <v>13780230616</v>
       </c>
@@ -7813,10 +8104,10 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10">
         <v>15944000</v>
@@ -7851,10 +8142,10 @@
       <c r="N102" s="10">
         <v>253023000</v>
       </c>
-      <c r="U102" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="V102" s="31">
+      <c r="U102" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="V102" s="43">
         <f>V101/V103</f>
         <v>0.95060181682148626</v>
       </c>
@@ -7864,10 +8155,10 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1">
         <v>3493000</v>
@@ -7902,10 +8193,10 @@
       <c r="N103" s="1">
         <v>530089000</v>
       </c>
-      <c r="U103" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="V103" s="37">
+      <c r="U103" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="V103" s="47">
         <f>V99+V101</f>
         <v>14496322616</v>
       </c>
@@ -7915,10 +8206,10 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11">
         <v>19437000</v>
@@ -7954,309 +8245,352 @@
         <v>783112000</v>
       </c>
       <c r="U104" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="V104" s="67"/>
+        <v>144</v>
+      </c>
+      <c r="V104" s="66"/>
     </row>
     <row r="105" spans="1:22" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B105" s="1" t="e">
+        <f t="shared" ref="B105:M105" si="11">(B22*(1-$V$91))+B77+B88+B81</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C105" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="11"/>
+        <v>-13961261.127261437</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="11"/>
+        <v>-12894261.127261437</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="11"/>
+        <v>-10685896.328074284</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="11"/>
+        <v>-13291837.921594083</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="11"/>
+        <v>-11506562.919477299</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="11"/>
+        <v>59703402.805452853</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="11"/>
+        <v>63817551.579125628</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="11"/>
+        <v>81641060.308769152</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="11"/>
+        <v>-40365724.597104236</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="11"/>
+        <v>-118250630.96723211</v>
+      </c>
+      <c r="N105" s="1">
+        <f>(N22*(1-$V$91))+N77+N88+N81</f>
+        <v>-411433501.87688744</v>
+      </c>
+      <c r="O105" s="26">
+        <f>N105*(1+$V$106)</f>
+        <v>-485754741.4344852</v>
+      </c>
+      <c r="P105" s="26">
+        <f t="shared" ref="P105:S105" si="12">O105*(1+$V$106)</f>
+        <v>-573501350.15667439</v>
+      </c>
+      <c r="Q105" s="26">
+        <f t="shared" si="12"/>
+        <v>-677098483.19800377</v>
+      </c>
+      <c r="R105" s="26">
+        <f t="shared" si="12"/>
+        <v>-799409375.10223901</v>
+      </c>
+      <c r="S105" s="26">
+        <f t="shared" si="12"/>
+        <v>-943814474.34800029</v>
+      </c>
+      <c r="T105" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="U105" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
+      <c r="V105" s="49">
+        <f>(V100*V92)+(V102*V97)</f>
+        <v>9.5424184829750236E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f t="shared" ref="C106:N106" si="13">(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
+      <c r="D106" s="15" t="e">
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
+      <c r="E106" s="15">
+        <f t="shared" si="13"/>
         <v>-6.4703426814921583E-2</v>
       </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
+      <c r="F106" s="15">
+        <f t="shared" si="13"/>
         <v>-0.1546295544916011</v>
       </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
+      <c r="G106" s="15">
+        <f t="shared" si="13"/>
         <v>-1.0138708903287736</v>
       </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:N105" si="8">(H106/G106)-1</f>
+      <c r="H106" s="15">
+        <f t="shared" si="13"/>
         <v>123.34948096885813</v>
       </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
+      <c r="I106" s="15">
+        <f t="shared" si="13"/>
         <v>2.2079194145309846</v>
       </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
+      <c r="J106" s="15">
+        <f t="shared" si="13"/>
         <v>0.30523147385130511</v>
       </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
+      <c r="K106" s="15">
+        <f t="shared" si="13"/>
         <v>0.23902944753474098</v>
       </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
+      <c r="L106" s="15">
+        <f t="shared" si="13"/>
         <v>-0.48580761432755126</v>
       </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
+      <c r="M106" s="15">
+        <f t="shared" si="13"/>
         <v>-0.32323580034423405</v>
       </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
+      <c r="N106" s="15">
+        <f t="shared" si="13"/>
         <v>-3.1279478405622863</v>
       </c>
-      <c r="O105" s="56">
-        <v>289400000</v>
-      </c>
-      <c r="P105" s="56">
-        <v>456900000</v>
-      </c>
-      <c r="Q105" s="56">
-        <v>650400000</v>
-      </c>
-      <c r="R105" s="56">
-        <v>816100000</v>
-      </c>
-      <c r="S105" s="56">
-        <v>1016000000</v>
-      </c>
-      <c r="T105" s="15"/>
-      <c r="U105" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="V105" s="25">
-        <f>(V100*V92)+(V102*V97)</f>
-        <v>9.4794101229913705E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1">
+      <c r="O106" s="29">
+        <v>288800000</v>
+      </c>
+      <c r="P106" s="29">
+        <v>477500000</v>
+      </c>
+      <c r="Q106" s="29">
+        <v>656500000</v>
+      </c>
+      <c r="R106" s="29">
+        <v>831800000</v>
+      </c>
+      <c r="S106" s="29">
+        <v>1046000000</v>
+      </c>
+      <c r="T106" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="U106" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="V106" s="51">
+        <f>(SUM(O4:S4)/5)</f>
+        <v>0.18063973696492228</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1">
         <v>-26351000</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E107" s="1">
         <v>-24646000</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F107" s="1">
         <v>-20835000</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G107" s="1">
         <v>289000</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H107" s="1">
         <v>35937000</v>
       </c>
-      <c r="I106" s="1">
+      <c r="I107" s="1">
         <v>115283000</v>
       </c>
-      <c r="J106" s="1">
+      <c r="J107" s="1">
         <v>150471000</v>
       </c>
-      <c r="K106" s="1">
+      <c r="K107" s="1">
         <v>186438000</v>
       </c>
-      <c r="L106" s="1">
+      <c r="L107" s="1">
         <v>95865000</v>
       </c>
-      <c r="M106" s="1">
+      <c r="M107" s="1">
         <v>64878000</v>
       </c>
-      <c r="N106" s="1">
+      <c r="N107" s="1">
         <v>-138057000</v>
       </c>
-      <c r="O106" s="38">
-        <f>N106*(1+$V$106)</f>
-        <v>-162860241.57189405</v>
-      </c>
-      <c r="P106" s="38">
-        <f t="shared" ref="P106:S106" si="9">O106*(1+$V$106)</f>
-        <v>-192119619.32285714</v>
-      </c>
-      <c r="Q106" s="38">
-        <f t="shared" si="9"/>
-        <v>-226635720.12734479</v>
-      </c>
-      <c r="R106" s="38">
-        <f t="shared" si="9"/>
-        <v>-267352963.83928046</v>
-      </c>
-      <c r="S106" s="38">
-        <f t="shared" si="9"/>
-        <v>-315385444.24279153</v>
-      </c>
-      <c r="T106" s="39" t="s">
+      <c r="O107" s="27"/>
+      <c r="P107" s="27"/>
+      <c r="Q107" s="27"/>
+      <c r="R107" s="27"/>
+      <c r="S107" s="30">
+        <f>S106*(1+V107)/(V108-V107)</f>
+        <v>15224173380.095371</v>
+      </c>
+      <c r="T107" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="U106" s="40" t="s">
+      <c r="U107" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="V106" s="41">
-        <f>(SUM(O4:S4)/5)</f>
-        <v>0.17965942742413685</v>
-      </c>
-    </row>
-    <row r="107" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="39"/>
-      <c r="P107" s="39"/>
-      <c r="Q107" s="39"/>
-      <c r="R107" s="39"/>
-      <c r="S107" s="57">
-        <f>S105*(1+V107)/(V108-V107)</f>
-        <v>14921031744.064592</v>
-      </c>
-      <c r="T107" s="43" t="s">
+      <c r="V107" s="53">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="O108" s="30">
+        <f t="shared" ref="O108:Q108" si="14">O107+O106</f>
+        <v>288800000</v>
+      </c>
+      <c r="P108" s="30">
+        <f t="shared" si="14"/>
+        <v>477500000</v>
+      </c>
+      <c r="Q108" s="30">
+        <f t="shared" si="14"/>
+        <v>656500000</v>
+      </c>
+      <c r="R108" s="30">
+        <f>R107+R106</f>
+        <v>831800000</v>
+      </c>
+      <c r="S108" s="30">
+        <f>S107+S106</f>
+        <v>16270173380.095371</v>
+      </c>
+      <c r="T108" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="U108" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="U107" s="44" t="s">
+      <c r="V108" s="51">
+        <f>V105</f>
+        <v>9.5424184829750236E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="O109" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="V107" s="45">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="O108" s="42">
-        <f t="shared" ref="O108:Q108" si="10">O107+O106</f>
-        <v>-162860241.57189405</v>
-      </c>
-      <c r="P108" s="42">
-        <f t="shared" si="10"/>
-        <v>-192119619.32285714</v>
-      </c>
-      <c r="Q108" s="42">
-        <f t="shared" si="10"/>
-        <v>-226635720.12734479</v>
-      </c>
-      <c r="R108" s="42">
-        <f>R107+R106</f>
-        <v>-267352963.83928046</v>
-      </c>
-      <c r="S108" s="57">
-        <f>S107+S105</f>
-        <v>15937031744.064592</v>
-      </c>
-      <c r="T108" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="U108" s="46" t="s">
+      <c r="P109" s="63"/>
+    </row>
+    <row r="110" spans="1:22" ht="20" x14ac:dyDescent="0.25">
+      <c r="O110" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="V108" s="47">
-        <f>V105</f>
-        <v>9.4794101229913705E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="O109" s="62" t="s">
+      <c r="P110" s="46">
+        <f>NPV(V108,O108,P108,Q108,R108,S108)</f>
+        <v>12053971114.61117</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" ht="20" x14ac:dyDescent="0.25">
+      <c r="O111" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="P109" s="63"/>
-    </row>
-    <row r="110" spans="1:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="O110" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="P110" s="36">
-        <f>NPV(V108,O108,P108,Q108,R108,S108)</f>
-        <v>9465298757.995306</v>
-      </c>
-    </row>
-    <row r="111" spans="1:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="O111" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="P111" s="36">
+      <c r="P111" s="46">
         <f>N40</f>
         <v>1024229000</v>
       </c>
     </row>
     <row r="112" spans="1:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="O112" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="P112" s="36">
+      <c r="O112" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="P112" s="46">
         <f>V99</f>
         <v>716092000</v>
       </c>
     </row>
     <row r="113" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O113" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="P113" s="36">
+      <c r="O113" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="P113" s="46">
         <f>P110+P111-P112</f>
-        <v>9773435757.995306</v>
+        <v>12362108114.61117</v>
       </c>
     </row>
     <row r="114" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O114" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="P114" s="49">
+      <c r="O114" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="P114" s="55">
         <f>N34*(1+(5*T16))</f>
         <v>72898725.091715693</v>
       </c>
     </row>
     <row r="115" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O115" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="P115" s="51">
+      <c r="O115" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="P115" s="57">
         <f>P113/P114</f>
-        <v>134.06867878277851</v>
+        <v>169.57920867694318</v>
       </c>
     </row>
     <row r="116" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O116" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="P116" s="52" cm="1">
+      <c r="O116" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="P116" s="58" cm="1">
         <f t="array" ref="P116">_FV(A1,"Price")</f>
         <v>244.57</v>
       </c>
     </row>
     <row r="117" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O117" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="P117" s="54">
+      <c r="O117" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="P117" s="59">
         <f>P115/P116-1</f>
-        <v>-0.45181878896521033</v>
+        <v>-0.3066230172263843</v>
       </c>
     </row>
     <row r="118" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O118" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="P118" s="55" t="str">
+      <c r="O118" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="P118" s="60" t="str">
         <f>IF(P115&gt;P116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -8299,8 +8633,9 @@
     <hyperlink ref="N36" r:id="rId26" tooltip="https://www.sec.gov/Archives/edgar/data/1419612/000117891323000707/0001178913-23-000707-index.htm" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
     <hyperlink ref="N74" r:id="rId27" tooltip="https://www.sec.gov/Archives/edgar/data/1419612/000117891323000707/0001178913-23-000707-index.htm" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="O1" r:id="rId28" display="https://finbox.com/NASDAQGS:SEDG/explorer/revenue_proj" xr:uid="{D493EC0E-B293-084B-AEB6-3ABBD0E15289}"/>
+    <hyperlink ref="T106" r:id="rId29" xr:uid="{958C1373-CAC4-A044-8468-98BC16654CA3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId29"/>
+  <drawing r:id="rId30"/>
 </worksheet>
 </file>